--- a/Raju_Kumar/Project_accounts.xlsx
+++ b/Raju_Kumar/Project_accounts.xlsx
@@ -1,25 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Investment Report" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Selling price</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Mobile No.</t>
+  </si>
+  <si>
+    <t>Customer email</t>
+  </si>
+  <si>
+    <t>Returns cost</t>
+  </si>
+  <si>
+    <t>Delivered By</t>
+  </si>
+  <si>
+    <t>Net profit</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Extra cost Delivery</t>
+  </si>
+  <si>
+    <t>Time to be Constructed</t>
+  </si>
+  <si>
+    <t>Time to Deliver</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Saurav</t>
+  </si>
+  <si>
+    <t>Simranjeet Singh</t>
+  </si>
+  <si>
+    <t>simranjeet2351994@gmail.com</t>
+  </si>
+  <si>
+    <t>ELSWD059024</t>
+  </si>
+  <si>
+    <t>22-04-2017</t>
+  </si>
+  <si>
+    <t>MATLAB 2012b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,24 +425,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2600</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>9716029947</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>2600</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
